--- a/Testes com Utilizadores.xlsx
+++ b/Testes com Utilizadores.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
     <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -135,16 +135,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -172,7 +172,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -180,15 +180,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -242,11 +244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146516320"/>
-        <c:axId val="2067951344"/>
+        <c:axId val="-2133997184"/>
+        <c:axId val="-2134036208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146516320"/>
+        <c:axId val="-2133997184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -266,19 +268,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -302,12 +313,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067951344"/>
+        <c:crossAx val="-2134036208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2067951344"/>
+        <c:axId val="-2134036208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,19 +338,27 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -363,7 +382,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146516320"/>
+        <c:crossAx val="-2133997184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -441,16 +460,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -478,7 +497,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -486,15 +505,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -548,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145052176"/>
-        <c:axId val="2146996784"/>
+        <c:axId val="-2133871088"/>
+        <c:axId val="-2134409952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145052176"/>
+        <c:axId val="-2133871088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,20 +593,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -609,12 +638,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146996784"/>
+        <c:crossAx val="-2134409952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2146996784"/>
+        <c:axId val="-2134409952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,19 +663,27 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -670,7 +707,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145052176"/>
+        <c:crossAx val="-2133871088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -861,11 +898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2146469040"/>
-        <c:axId val="2147464736"/>
+        <c:axId val="-2137835936"/>
+        <c:axId val="-2137839232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2146469040"/>
+        <c:axId val="-2137835936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,12 +958,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2147464736"/>
+        <c:crossAx val="-2137839232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2147464736"/>
+        <c:axId val="-2137839232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1019,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146469040"/>
+        <c:crossAx val="-2137835936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1060,16 +1097,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -1097,7 +1134,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1105,15 +1142,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1167,11 +1206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126890192"/>
-        <c:axId val="-2125845232"/>
+        <c:axId val="-2134418752"/>
+        <c:axId val="-2134429520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126890192"/>
+        <c:axId val="-2134418752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,20 +1230,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1228,12 +1275,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125845232"/>
+        <c:crossAx val="-2134429520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125845232"/>
+        <c:axId val="-2134429520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,19 +1300,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1289,7 +1345,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126890192"/>
+        <c:crossAx val="-2134418752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1367,16 +1423,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -1404,7 +1460,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1412,15 +1468,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1474,11 +1532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125698048"/>
-        <c:axId val="-2128308976"/>
+        <c:axId val="-2134470496"/>
+        <c:axId val="-2134473792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125698048"/>
+        <c:axId val="-2134470496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,20 +1556,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1535,12 +1601,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128308976"/>
+        <c:crossAx val="-2134473792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128308976"/>
+        <c:axId val="-2134473792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,20 +1626,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1597,7 +1671,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125698048"/>
+        <c:crossAx val="-2134470496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1788,11 +1862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123975840"/>
-        <c:axId val="-2125911328"/>
+        <c:axId val="-2134503520"/>
+        <c:axId val="-2134506816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123975840"/>
+        <c:axId val="-2134503520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,6 +1886,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1848,12 +1923,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125911328"/>
+        <c:crossAx val="-2134506816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125911328"/>
+        <c:axId val="-2134506816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1984,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123975840"/>
+        <c:crossAx val="-2134503520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1987,16 +2062,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -2024,7 +2099,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2032,15 +2107,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2094,11 +2171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125741344"/>
-        <c:axId val="-2128111456"/>
+        <c:axId val="-2134534624"/>
+        <c:axId val="-2134537920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125741344"/>
+        <c:axId val="-2134534624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,20 +2195,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2155,12 +2240,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128111456"/>
+        <c:crossAx val="-2134537920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128111456"/>
+        <c:axId val="-2134537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,19 +2265,27 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2216,7 +2309,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125741344"/>
+        <c:crossAx val="-2134534624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,16 +2387,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-PT"/>
@@ -2331,7 +2424,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2339,15 +2432,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2401,11 +2496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123425888"/>
-        <c:axId val="-2124017072"/>
+        <c:axId val="-2134565840"/>
+        <c:axId val="-2134569136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123425888"/>
+        <c:axId val="-2134565840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,20 +2520,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2462,12 +2565,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124017072"/>
+        <c:crossAx val="-2134569136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124017072"/>
+        <c:axId val="-2134569136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,20 +2590,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2524,7 +2635,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123425888"/>
+        <c:crossAx val="-2134565840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2715,11 +2826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128106000"/>
-        <c:axId val="-2124147488"/>
+        <c:axId val="-2137911216"/>
+        <c:axId val="-2137914512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128106000"/>
+        <c:axId val="-2137911216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,12 +2886,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124147488"/>
+        <c:crossAx val="-2137914512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124147488"/>
+        <c:axId val="-2137914512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +2947,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128106000"/>
+        <c:crossAx val="-2137911216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3246,6 +3357,1038 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3761,7 +4904,1039 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4277,8 +6452,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4289,7 +6464,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4305,21 +6480,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4335,7 +6513,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4355,22 +6533,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4379,37 +6552,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4419,22 +6604,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4464,15 +6653,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4482,7 +6669,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4491,14 +6678,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4507,126 +6693,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4647,7 +6826,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4655,7 +6834,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4668,6 +6847,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4675,10 +6865,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4693,17 +6883,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4711,11 +6901,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4736,20 +6929,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4763,38 +6955,21 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4805,7 +6980,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4821,21 +6996,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4851,7 +7029,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4871,22 +7049,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4895,37 +7068,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4935,22 +7120,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4980,15 +7169,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4998,7 +7185,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5007,14 +7194,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5023,126 +7209,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5163,7 +7342,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5171,7 +7350,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5184,6 +7363,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5191,10 +7381,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5209,17 +7399,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5227,11 +7417,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5252,20 +7445,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5279,2096 +7471,15 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8443,6 +8554,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -8457,10 +8571,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Testes com Utilizadores.xlsx
+++ b/Testes com Utilizadores.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edujanicas/Library/Mobile Documents/com~apple~CloudDocs/Univesidade/Engenharia Informática/2º Ano/2º Semestre/Interfaces pessoa máquina/Labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nuno_Henrique/Desktop/LEIC/ano_2/2_semestre/IPM/ipm2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,10 @@
   <sheets>
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
     <sheet name="Folha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -231,6 +229,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -244,11 +257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133997184"/>
-        <c:axId val="-2134036208"/>
+        <c:axId val="-2055093920"/>
+        <c:axId val="-2054194752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133997184"/>
+        <c:axId val="-2055093920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,12 +326,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134036208"/>
+        <c:crossAx val="-2054194752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134036208"/>
+        <c:axId val="-2054194752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,6 +365,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -382,7 +396,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133997184"/>
+        <c:crossAx val="-2055093920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -446,7 +460,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -556,6 +569,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -569,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133871088"/>
-        <c:axId val="-2134409952"/>
+        <c:axId val="-2055204944"/>
+        <c:axId val="-2055201360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133871088"/>
+        <c:axId val="-2055204944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,12 +666,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134409952"/>
+        <c:crossAx val="-2055201360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134409952"/>
+        <c:axId val="-2055201360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,6 +705,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -707,7 +736,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133871088"/>
+        <c:crossAx val="-2055204944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -771,7 +800,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -883,7 +911,16 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,11 +935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137835936"/>
-        <c:axId val="-2137839232"/>
+        <c:axId val="-2049726736"/>
+        <c:axId val="-2049723488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137835936"/>
+        <c:axId val="-2049726736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,6 +959,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -958,12 +996,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137839232"/>
+        <c:crossAx val="-2049723488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137839232"/>
+        <c:axId val="-2049723488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,6 +1021,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1019,7 +1058,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137835936"/>
+        <c:crossAx val="-2049726736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1193,6 +1232,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1206,11 +1260,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134418752"/>
-        <c:axId val="-2134429520"/>
+        <c:axId val="-2049614496"/>
+        <c:axId val="-2049589120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2134418752"/>
+        <c:axId val="-2049614496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,12 +1329,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134429520"/>
+        <c:crossAx val="-2049589120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134429520"/>
+        <c:axId val="-2049589120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1399,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134418752"/>
+        <c:crossAx val="-2049614496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1409,7 +1463,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1519,6 +1572,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1532,11 +1600,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134470496"/>
-        <c:axId val="-2134473792"/>
+        <c:axId val="-2049521584"/>
+        <c:axId val="-2049518000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2134470496"/>
+        <c:axId val="-2049521584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,12 +1669,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134473792"/>
+        <c:crossAx val="-2049518000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134473792"/>
+        <c:axId val="-2049518000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1739,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134470496"/>
+        <c:crossAx val="-2049521584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1735,7 +1803,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1844,9 +1911,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1862,11 +1938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134503520"/>
-        <c:axId val="-2134506816"/>
+        <c:axId val="-2049484080"/>
+        <c:axId val="-2049454544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2134503520"/>
+        <c:axId val="-2049484080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,12 +1999,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134506816"/>
+        <c:crossAx val="-2049454544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134506816"/>
+        <c:axId val="-2049454544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,6 +2024,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1984,7 +2061,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134503520"/>
+        <c:crossAx val="-2049484080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2048,7 +2125,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2158,6 +2234,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2171,11 +2262,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134534624"/>
-        <c:axId val="-2134537920"/>
+        <c:axId val="-2049335040"/>
+        <c:axId val="-2049177296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2134534624"/>
+        <c:axId val="-2049335040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,12 +2331,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134537920"/>
+        <c:crossAx val="-2049177296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134537920"/>
+        <c:axId val="-2049177296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,6 +2370,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2309,7 +2401,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134534624"/>
+        <c:crossAx val="-2049335040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2373,7 +2465,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2483,6 +2574,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2496,11 +2602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134565840"/>
-        <c:axId val="-2134569136"/>
+        <c:axId val="-2049413696"/>
+        <c:axId val="-2049393776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2134565840"/>
+        <c:axId val="-2049413696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,12 +2671,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134569136"/>
+        <c:crossAx val="-2049393776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134569136"/>
+        <c:axId val="-2049393776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,7 +2741,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134565840"/>
+        <c:crossAx val="-2049413696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2699,7 +2805,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2813,6 +2918,15 @@
                 <c:pt idx="1">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2826,11 +2940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137911216"/>
-        <c:axId val="-2137914512"/>
+        <c:axId val="-2049298528"/>
+        <c:axId val="-2049295200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137911216"/>
+        <c:axId val="-2049298528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,6 +2964,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2886,12 +3001,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137914512"/>
+        <c:crossAx val="-2049295200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137914512"/>
+        <c:axId val="-2049295200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,6 +3026,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2947,7 +3063,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137911216"/>
+        <c:crossAx val="-2049298528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8576,8 +8692,8 @@
   </sheetPr>
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8626,11 +8742,29 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -8640,11 +8774,29 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
       </c>
       <c r="H4">
         <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -8654,16 +8806,97 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -8719,138 +8952,138 @@
       <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="H22" t="e">
+      <c r="H22">
         <f>AVERAGE(B3:B17)</f>
-        <v>#DIV/0!</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q22" t="s">
         <v>3</v>
       </c>
-      <c r="R22" t="e">
+      <c r="R22">
         <f>AVERAGE(F3:F17)</f>
-        <v>#DIV/0!</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
       </c>
-      <c r="AB22" t="e">
+      <c r="AB22">
         <f>AVERAGE(J3:J17)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="H23" t="e">
+      <c r="H23">
         <f>_xlfn.STDEV.P(B3:B17)</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
       <c r="Q23" t="s">
         <v>4</v>
       </c>
-      <c r="R23" t="e">
+      <c r="R23">
         <f>_xlfn.STDEV.P(F3:F17)</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
       <c r="AA23" t="s">
         <v>4</v>
       </c>
-      <c r="AB23" t="e">
+      <c r="AB23">
         <f>_xlfn.STDEV.P(J3:J17)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" t="e">
+      <c r="H24">
         <f>_xlfn.CONFIDENCE.T(0.05,H23,15)</f>
-        <v>#DIV/0!</v>
+        <v>0.22151261662594721</v>
       </c>
       <c r="Q24" t="s">
         <v>5</v>
       </c>
-      <c r="R24" t="e">
+      <c r="R24">
         <f>_xlfn.CONFIDENCE.T(0.05,R23,15)</f>
-        <v>#DIV/0!</v>
+        <v>0.22151261662594721</v>
       </c>
       <c r="AA24" t="s">
         <v>5</v>
       </c>
       <c r="AB24" t="e">
         <f>_xlfn.CONFIDENCE.T(0.05,AB23,15)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="37" spans="7:28" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>3</v>
       </c>
-      <c r="H37" t="e">
+      <c r="H37">
         <f>AVERAGE(C3:C17)</f>
-        <v>#DIV/0!</v>
+        <v>37.6</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
-      <c r="R37" t="e">
+      <c r="R37">
         <f>AVERAGE(G3:G17)</f>
-        <v>#DIV/0!</v>
+        <v>31</v>
       </c>
       <c r="AA37" t="s">
         <v>3</v>
       </c>
-      <c r="AB37" t="e">
+      <c r="AB37">
         <f>AVERAGE(K3:K17)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="7:28" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>4</v>
       </c>
-      <c r="H38" t="e">
+      <c r="H38">
         <f>_xlfn.STDEV.P(C3:C17)</f>
-        <v>#DIV/0!</v>
+        <v>7.7871689335727137</v>
       </c>
       <c r="Q38" t="s">
         <v>4</v>
       </c>
-      <c r="R38" t="e">
+      <c r="R38">
         <f>_xlfn.STDEV.P(G3:G17)</f>
-        <v>#DIV/0!</v>
+        <v>7.7201036262475133</v>
       </c>
       <c r="AA38" t="s">
         <v>4</v>
       </c>
-      <c r="AB38" t="e">
+      <c r="AB38">
         <f>_xlfn.STDEV.P(K3:K17)</f>
-        <v>#DIV/0!</v>
+        <v>1.6733200530681511</v>
       </c>
     </row>
     <row r="39" spans="7:28" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>5</v>
       </c>
-      <c r="H39" t="e">
+      <c r="H39">
         <f>_xlfn.CONFIDENCE.T(0.05,H38,15)</f>
-        <v>#DIV/0!</v>
+        <v>4.3123904164599463</v>
       </c>
       <c r="Q39" t="s">
         <v>5</v>
       </c>
-      <c r="R39" t="e">
+      <c r="R39">
         <f>_xlfn.CONFIDENCE.T(0.05,R38,15)</f>
-        <v>#DIV/0!</v>
+        <v>4.2752508871838755</v>
       </c>
       <c r="AA39" t="s">
         <v>5</v>
       </c>
-      <c r="AB39" t="e">
+      <c r="AB39">
         <f>_xlfn.CONFIDENCE.T(0.05,AB38,15)</f>
-        <v>#DIV/0!</v>
+        <v>0.9266537585194875</v>
       </c>
     </row>
     <row r="50" spans="7:28" x14ac:dyDescent="0.2">
@@ -8859,14 +9092,14 @@
       </c>
       <c r="H50">
         <f>AVERAGE(D3:D17)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="s">
         <v>3</v>
       </c>
       <c r="R50">
         <f>AVERAGE(H3:H17)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AA50" t="s">
         <v>3</v>
@@ -8882,14 +9115,14 @@
       </c>
       <c r="H51">
         <f>_xlfn.STDEV.P(D3:D17)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="s">
         <v>4</v>
       </c>
       <c r="R51">
         <f>_xlfn.STDEV.P(H3:H17)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="s">
         <v>4</v>
@@ -8903,16 +9136,16 @@
       <c r="G52" t="s">
         <v>5</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="e">
         <f>_xlfn.CONFIDENCE.T(0.05,H51,15)</f>
-        <v>0.27689077078243401</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q52" t="s">
         <v>5</v>
       </c>
-      <c r="R52">
+      <c r="R52" t="e">
         <f>_xlfn.CONFIDENCE.T(0.05,R51,15)</f>
-        <v>0.27689077078243401</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA52" t="s">
         <v>5</v>
@@ -8926,4 +9159,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testes com Utilizadores.xlsx
+++ b/Testes com Utilizadores.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nuno_Henrique/Desktop/LEIC/ano_2/2_semestre/IPM/ipm2016/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edujanicas/Library/Mobile Documents/com~apple~CloudDocs/Univesidade/Engenharia Informática/2º Ano/2º Semestre/Interfaces pessoa máquina/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -244,6 +247,12 @@
                 <c:pt idx="4">
                   <c:v>2.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -257,11 +266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2055093920"/>
-        <c:axId val="-2054194752"/>
+        <c:axId val="2102312960"/>
+        <c:axId val="2102322864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2055093920"/>
+        <c:axId val="2102312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,12 +335,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2054194752"/>
+        <c:crossAx val="2102322864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2054194752"/>
+        <c:axId val="2102322864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +405,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055093920"/>
+        <c:crossAx val="2102312960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -460,6 +469,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -584,6 +594,12 @@
                 <c:pt idx="4">
                   <c:v>40.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -597,11 +613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2055204944"/>
-        <c:axId val="-2055201360"/>
+        <c:axId val="2101587520"/>
+        <c:axId val="2101583872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2055204944"/>
+        <c:axId val="2101587520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,12 +682,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055201360"/>
+        <c:crossAx val="2101583872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2055201360"/>
+        <c:axId val="2101583872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +752,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055204944"/>
+        <c:crossAx val="2101587520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -800,6 +816,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -922,6 +939,12 @@
                 <c:pt idx="4">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -935,11 +958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049726736"/>
-        <c:axId val="-2049723488"/>
+        <c:axId val="2099359648"/>
+        <c:axId val="2099356352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049726736"/>
+        <c:axId val="2099359648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +1019,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049723488"/>
+        <c:crossAx val="2099356352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049723488"/>
+        <c:axId val="2099356352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1081,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049726736"/>
+        <c:crossAx val="2099359648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1247,6 +1270,12 @@
                 <c:pt idx="4">
                   <c:v>2.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1260,11 +1289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049614496"/>
-        <c:axId val="-2049589120"/>
+        <c:axId val="2099294368"/>
+        <c:axId val="2099290720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049614496"/>
+        <c:axId val="2099294368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,12 +1358,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049589120"/>
+        <c:crossAx val="2099290720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049589120"/>
+        <c:axId val="2099290720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1428,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049614496"/>
+        <c:crossAx val="2099294368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1463,6 +1492,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1587,6 +1617,12 @@
                 <c:pt idx="4">
                   <c:v>26.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1600,11 +1636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049521584"/>
-        <c:axId val="-2049518000"/>
+        <c:axId val="2099260800"/>
+        <c:axId val="2099257152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049521584"/>
+        <c:axId val="2099260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,12 +1705,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049518000"/>
+        <c:crossAx val="2099257152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049518000"/>
+        <c:axId val="2099257152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1775,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049521584"/>
+        <c:crossAx val="2099260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1803,6 +1839,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1925,6 +1962,12 @@
                 <c:pt idx="4">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1938,11 +1981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049484080"/>
-        <c:axId val="-2049454544"/>
+        <c:axId val="2102738944"/>
+        <c:axId val="2102742240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049484080"/>
+        <c:axId val="2102738944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,12 +2042,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049454544"/>
+        <c:crossAx val="2102742240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049454544"/>
+        <c:axId val="2102742240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2104,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049484080"/>
+        <c:crossAx val="2102738944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2125,6 +2168,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2249,6 +2293,12 @@
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2262,11 +2312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049335040"/>
-        <c:axId val="-2049177296"/>
+        <c:axId val="2102770848"/>
+        <c:axId val="2102774496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049335040"/>
+        <c:axId val="2102770848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,12 +2381,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049177296"/>
+        <c:crossAx val="2102774496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049177296"/>
+        <c:axId val="2102774496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2451,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049335040"/>
+        <c:crossAx val="2102770848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2465,6 +2515,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2589,6 +2640,12 @@
                 <c:pt idx="4">
                   <c:v>8.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2602,11 +2659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049413696"/>
-        <c:axId val="-2049393776"/>
+        <c:axId val="2102801872"/>
+        <c:axId val="2102805520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049413696"/>
+        <c:axId val="2102801872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,12 +2728,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049393776"/>
+        <c:crossAx val="2102805520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049393776"/>
+        <c:axId val="2102805520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2798,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049413696"/>
+        <c:crossAx val="2102801872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2805,6 +2862,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2927,6 +2985,12 @@
                 <c:pt idx="4">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2940,11 +3004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049298528"/>
-        <c:axId val="-2049295200"/>
+        <c:axId val="2102833136"/>
+        <c:axId val="2102836432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049298528"/>
+        <c:axId val="2102833136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,12 +3065,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049295200"/>
+        <c:crossAx val="2102836432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049295200"/>
+        <c:axId val="2102836432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3127,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049298528"/>
+        <c:crossAx val="2102833136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8693,7 +8757,7 @@
   <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8902,21 +8966,129 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -8954,21 +9126,21 @@
       </c>
       <c r="H22">
         <f>AVERAGE(B3:B17)</f>
-        <v>2.2000000000000002</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="Q22" t="s">
         <v>3</v>
       </c>
       <c r="R22">
         <f>AVERAGE(F3:F17)</f>
-        <v>2.2000000000000002</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
       </c>
       <c r="AB22">
         <f>AVERAGE(J3:J17)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -8977,21 +9149,21 @@
       </c>
       <c r="H23">
         <f>_xlfn.STDEV.P(B3:B17)</f>
-        <v>0.4</v>
+        <v>1.4487116456005886</v>
       </c>
       <c r="Q23" t="s">
         <v>4</v>
       </c>
       <c r="R23">
         <f>_xlfn.STDEV.P(F3:F17)</f>
-        <v>0.4</v>
+        <v>0.99380798999990649</v>
       </c>
       <c r="AA23" t="s">
         <v>4</v>
       </c>
       <c r="AB23">
         <f>_xlfn.STDEV.P(J3:J17)</f>
-        <v>0</v>
+        <v>0.31426968052735443</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -9000,21 +9172,21 @@
       </c>
       <c r="H24">
         <f>_xlfn.CONFIDENCE.T(0.05,H23,15)</f>
-        <v>0.22151261662594721</v>
+        <v>0.8022697683836707</v>
       </c>
       <c r="Q24" t="s">
         <v>5</v>
       </c>
       <c r="R24">
         <f>_xlfn.CONFIDENCE.T(0.05,R23,15)</f>
-        <v>0.22151261662594721</v>
+        <v>0.5503525207216311</v>
       </c>
       <c r="AA24" t="s">
         <v>5</v>
       </c>
-      <c r="AB24" t="e">
+      <c r="AB24">
         <f>_xlfn.CONFIDENCE.T(0.05,AB23,15)</f>
-        <v>#NUM!</v>
+        <v>0.17403674814953693</v>
       </c>
     </row>
     <row r="37" spans="7:28" x14ac:dyDescent="0.2">
@@ -9023,21 +9195,21 @@
       </c>
       <c r="H37">
         <f>AVERAGE(C3:C17)</f>
-        <v>37.6</v>
+        <v>38.777777777777779</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
       <c r="R37">
         <f>AVERAGE(G3:G17)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="s">
         <v>3</v>
       </c>
       <c r="AB37">
         <f>AVERAGE(K3:K17)</f>
-        <v>9</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="38" spans="7:28" x14ac:dyDescent="0.2">
@@ -9046,21 +9218,21 @@
       </c>
       <c r="H38">
         <f>_xlfn.STDEV.P(C3:C17)</f>
-        <v>7.7871689335727137</v>
+        <v>8.5735740994935234</v>
       </c>
       <c r="Q38" t="s">
         <v>4</v>
       </c>
       <c r="R38">
         <f>_xlfn.STDEV.P(G3:G17)</f>
-        <v>7.7201036262475133</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AA38" t="s">
         <v>4</v>
       </c>
       <c r="AB38">
         <f>_xlfn.STDEV.P(K3:K17)</f>
-        <v>1.6733200530681511</v>
+        <v>3.5728744868474505</v>
       </c>
     </row>
     <row r="39" spans="7:28" x14ac:dyDescent="0.2">
@@ -9069,21 +9241,21 @@
       </c>
       <c r="H39">
         <f>_xlfn.CONFIDENCE.T(0.05,H38,15)</f>
-        <v>4.3123904164599463</v>
+        <v>4.7478870815381491</v>
       </c>
       <c r="Q39" t="s">
         <v>5</v>
       </c>
       <c r="R39">
         <f>_xlfn.CONFIDENCE.T(0.05,R38,15)</f>
-        <v>4.2752508871838755</v>
+        <v>4.0610646381423656</v>
       </c>
       <c r="AA39" t="s">
         <v>5</v>
       </c>
       <c r="AB39">
         <f>_xlfn.CONFIDENCE.T(0.05,AB38,15)</f>
-        <v>0.9266537585194875</v>
+        <v>1.9785919411441679</v>
       </c>
     </row>
     <row r="50" spans="7:28" x14ac:dyDescent="0.2">
@@ -9092,14 +9264,14 @@
       </c>
       <c r="H50">
         <f>AVERAGE(D3:D17)</f>
-        <v>5</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="Q50" t="s">
         <v>3</v>
       </c>
       <c r="R50">
         <f>AVERAGE(H3:H17)</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AA50" t="s">
         <v>3</v>
@@ -9115,14 +9287,14 @@
       </c>
       <c r="H51">
         <f>_xlfn.STDEV.P(D3:D17)</f>
-        <v>0</v>
+        <v>0.41573970964154905</v>
       </c>
       <c r="Q51" t="s">
         <v>4</v>
       </c>
       <c r="R51">
         <f>_xlfn.STDEV.P(H3:H17)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA51" t="s">
         <v>4</v>
@@ -9136,16 +9308,16 @@
       <c r="G52" t="s">
         <v>5</v>
       </c>
-      <c r="H52" t="e">
+      <c r="H52">
         <f>_xlfn.CONFIDENCE.T(0.05,H51,15)</f>
-        <v>#NUM!</v>
+        <v>0.23022897729502764</v>
       </c>
       <c r="Q52" t="s">
         <v>5</v>
       </c>
-      <c r="R52" t="e">
+      <c r="R52">
         <f>_xlfn.CONFIDENCE.T(0.05,R51,15)</f>
-        <v>#NUM!</v>
+        <v>0.36918769437657861</v>
       </c>
       <c r="AA52" t="s">
         <v>5</v>

--- a/Testes com Utilizadores.xlsx
+++ b/Testes com Utilizadores.xlsx
@@ -198,10 +198,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -222,16 +222,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$3:$B$9</c:f>
+              <c:f>Folha1!$B$3:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
@@ -252,6 +276,30 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -266,11 +314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102312960"/>
-        <c:axId val="2102322864"/>
+        <c:axId val="2144279280"/>
+        <c:axId val="2144733616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102312960"/>
+        <c:axId val="2144279280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,12 +383,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102322864"/>
+        <c:crossAx val="2144733616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102322864"/>
+        <c:axId val="2144733616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +453,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102312960"/>
+        <c:crossAx val="2144279280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -545,10 +593,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -569,16 +617,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$3:$C$9</c:f>
+              <c:f>Folha1!$C$3:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43.0</c:v>
                 </c:pt>
@@ -599,6 +671,30 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,11 +709,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101587520"/>
-        <c:axId val="2101583872"/>
+        <c:axId val="2112053088"/>
+        <c:axId val="2110434256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2101587520"/>
+        <c:axId val="2112053088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,12 +778,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101583872"/>
+        <c:crossAx val="2110434256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101583872"/>
+        <c:axId val="2110434256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +848,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101587520"/>
+        <c:crossAx val="2112053088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,10 +986,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -914,16 +1010,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$D$3:$D$9</c:f>
+              <c:f>Folha1!$D$3:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -944,6 +1064,30 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,11 +1102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099359648"/>
-        <c:axId val="2099356352"/>
+        <c:axId val="2099926016"/>
+        <c:axId val="2102883792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099359648"/>
+        <c:axId val="2099926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,12 +1163,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099356352"/>
+        <c:crossAx val="2102883792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099356352"/>
+        <c:axId val="2102883792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1225,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099359648"/>
+        <c:crossAx val="2099926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1221,10 +1365,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1245,16 +1389,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$F$3:$F$9</c:f>
+              <c:f>Folha1!$F$3:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
@@ -1275,6 +1443,30 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,11 +1481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099294368"/>
-        <c:axId val="2099290720"/>
+        <c:axId val="2112771200"/>
+        <c:axId val="2112618512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099294368"/>
+        <c:axId val="2112771200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1550,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099290720"/>
+        <c:crossAx val="2112618512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099290720"/>
+        <c:axId val="2112618512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1620,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099294368"/>
+        <c:crossAx val="2112771200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1568,10 +1760,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1592,16 +1784,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$G$3:$G$9</c:f>
+              <c:f>Folha1!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>45.0</c:v>
                 </c:pt>
@@ -1622,6 +1838,30 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,11 +1876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099260800"/>
-        <c:axId val="2099257152"/>
+        <c:axId val="2108303760"/>
+        <c:axId val="2144070256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099260800"/>
+        <c:axId val="2108303760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,12 +1945,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099257152"/>
+        <c:crossAx val="2144070256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099257152"/>
+        <c:axId val="2144070256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +2015,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099260800"/>
+        <c:crossAx val="2108303760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1913,10 +2153,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1937,16 +2177,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$H$3:$H$9</c:f>
+              <c:f>Folha1!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -1967,6 +2231,30 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,11 +2269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102738944"/>
-        <c:axId val="2102742240"/>
+        <c:axId val="2139680960"/>
+        <c:axId val="2142341168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102738944"/>
+        <c:axId val="2139680960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,12 +2330,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102742240"/>
+        <c:crossAx val="2142341168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102742240"/>
+        <c:axId val="2142341168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2392,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102738944"/>
+        <c:crossAx val="2139680960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2244,10 +2532,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2268,16 +2556,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$J$3:$J$9</c:f>
+              <c:f>Folha1!$J$3:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2297,6 +2609,30 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2312,11 +2648,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102770848"/>
-        <c:axId val="2102774496"/>
+        <c:axId val="2141668944"/>
+        <c:axId val="2141453280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102770848"/>
+        <c:axId val="2141668944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,12 +2717,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102774496"/>
+        <c:crossAx val="2141453280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102774496"/>
+        <c:axId val="2141453280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2787,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102770848"/>
+        <c:crossAx val="2141668944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2591,10 +2927,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2615,16 +2951,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$K$3:$K$9</c:f>
+              <c:f>Folha1!$K$3:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>9.0</c:v>
                 </c:pt>
@@ -2645,6 +3005,30 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,11 +3043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102801872"/>
-        <c:axId val="2102805520"/>
+        <c:axId val="2141916416"/>
+        <c:axId val="2112856272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102801872"/>
+        <c:axId val="2141916416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,12 +3112,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102805520"/>
+        <c:crossAx val="2112856272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102805520"/>
+        <c:axId val="2112856272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2798,7 +3182,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102801872"/>
+        <c:crossAx val="2141916416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2936,10 +3320,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$3:$A$9</c:f>
+              <c:f>Folha1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2960,16 +3344,40 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$L$3:$L$9</c:f>
+              <c:f>Folha1!$L$3:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -2989,6 +3397,30 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3004,11 +3436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102833136"/>
-        <c:axId val="2102836432"/>
+        <c:axId val="2141996128"/>
+        <c:axId val="2142554272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102833136"/>
+        <c:axId val="2141996128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,12 +3497,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102836432"/>
+        <c:crossAx val="2142554272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102836432"/>
+        <c:axId val="2142554272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3559,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102833136"/>
+        <c:crossAx val="2141996128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8756,11 +9188,14 @@
   </sheetPr>
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
@@ -9094,31 +9529,193 @@
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>63</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
@@ -9126,21 +9723,21 @@
       </c>
       <c r="H22">
         <f>AVERAGE(B3:B17)</f>
-        <v>2.8888888888888888</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q22" t="s">
         <v>3</v>
       </c>
       <c r="R22">
         <f>AVERAGE(F3:F17)</f>
-        <v>2.8888888888888888</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
       </c>
       <c r="AB22">
         <f>AVERAGE(J3:J17)</f>
-        <v>0.1111111111111111</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -9149,21 +9746,21 @@
       </c>
       <c r="H23">
         <f>_xlfn.STDEV.P(B3:B17)</f>
-        <v>1.4487116456005886</v>
+        <v>1.6</v>
       </c>
       <c r="Q23" t="s">
         <v>4</v>
       </c>
       <c r="R23">
         <f>_xlfn.STDEV.P(F3:F17)</f>
-        <v>0.99380798999990649</v>
+        <v>1.586050300449376</v>
       </c>
       <c r="AA23" t="s">
         <v>4</v>
       </c>
       <c r="AB23">
         <f>_xlfn.STDEV.P(J3:J17)</f>
-        <v>0.31426968052735443</v>
+        <v>0.24944382578492943</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -9172,21 +9769,21 @@
       </c>
       <c r="H24">
         <f>_xlfn.CONFIDENCE.T(0.05,H23,15)</f>
-        <v>0.8022697683836707</v>
+        <v>0.88605046650378883</v>
       </c>
       <c r="Q24" t="s">
         <v>5</v>
       </c>
       <c r="R24">
         <f>_xlfn.CONFIDENCE.T(0.05,R23,15)</f>
-        <v>0.5503525207216311</v>
+        <v>0.87832538038227759</v>
       </c>
       <c r="AA24" t="s">
         <v>5</v>
       </c>
       <c r="AB24">
         <f>_xlfn.CONFIDENCE.T(0.05,AB23,15)</f>
-        <v>0.17403674814953693</v>
+        <v>0.13813738637701661</v>
       </c>
     </row>
     <row r="37" spans="7:28" x14ac:dyDescent="0.2">
@@ -9194,22 +9791,22 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(C3:C17)</f>
-        <v>38.777777777777779</v>
+        <f>AVERAGE(C13:C17,C3:C11)</f>
+        <v>41.785714285714285</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
       <c r="R37">
-        <f>AVERAGE(G3:G17)</f>
-        <v>34</v>
+        <f>AVERAGE(G3:G11,G13:G15)</f>
+        <v>39.25</v>
       </c>
       <c r="AA37" t="s">
         <v>3</v>
       </c>
       <c r="AB37">
-        <f>AVERAGE(K3:K17)</f>
-        <v>11.111111111111111</v>
+        <f>AVERAGE(K3:K11,K13:K17)</f>
+        <v>10.571428571428571</v>
       </c>
     </row>
     <row r="38" spans="7:28" x14ac:dyDescent="0.2">
@@ -9217,22 +9814,22 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <f>_xlfn.STDEV.P(C3:C17)</f>
-        <v>8.5735740994935234</v>
+        <f>_xlfn.STDEV.P(C3:C11,C13:C17)</f>
+        <v>10.831030629159716</v>
       </c>
       <c r="Q38" t="s">
         <v>4</v>
       </c>
       <c r="R38">
-        <f>_xlfn.STDEV.P(G3:G17)</f>
-        <v>7.333333333333333</v>
+        <f>_xlfn.STDEV.P(G3:G11,G13:G17)</f>
+        <v>10.859022393702794</v>
       </c>
       <c r="AA38" t="s">
         <v>4</v>
       </c>
       <c r="AB38">
-        <f>_xlfn.STDEV.P(K3:K17)</f>
-        <v>3.5728744868474505</v>
+        <f>_xlfn.STDEV.P(K3:K11,K13:K17)</f>
+        <v>3.1102201510110343</v>
       </c>
     </row>
     <row r="39" spans="7:28" x14ac:dyDescent="0.2">
@@ -9240,22 +9837,22 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <f>_xlfn.CONFIDENCE.T(0.05,H38,15)</f>
-        <v>4.7478870815381491</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,H38,14)</f>
+        <v>6.2536509011050256</v>
       </c>
       <c r="Q39" t="s">
         <v>5</v>
       </c>
       <c r="R39">
-        <f>_xlfn.CONFIDENCE.T(0.05,R38,15)</f>
-        <v>4.0610646381423656</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,R38,14)</f>
+        <v>6.2698128647769824</v>
       </c>
       <c r="AA39" t="s">
         <v>5</v>
       </c>
       <c r="AB39">
-        <f>_xlfn.CONFIDENCE.T(0.05,AB38,15)</f>
-        <v>1.9785919411441679</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,AB38,14)</f>
+        <v>1.7957876508668071</v>
       </c>
     </row>
     <row r="50" spans="7:28" x14ac:dyDescent="0.2">
@@ -9264,14 +9861,14 @@
       </c>
       <c r="H50">
         <f>AVERAGE(D3:D17)</f>
-        <v>4.7777777777777777</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="Q50" t="s">
         <v>3</v>
       </c>
       <c r="R50">
         <f>AVERAGE(H3:H17)</f>
-        <v>4.666666666666667</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="AA50" t="s">
         <v>3</v>
@@ -9287,14 +9884,14 @@
       </c>
       <c r="H51">
         <f>_xlfn.STDEV.P(D3:D17)</f>
-        <v>0.41573970964154905</v>
+        <v>0.44221663871405331</v>
       </c>
       <c r="Q51" t="s">
         <v>4</v>
       </c>
       <c r="R51">
         <f>_xlfn.STDEV.P(H3:H17)</f>
-        <v>0.66666666666666663</v>
+        <v>0.71802197428460057</v>
       </c>
       <c r="AA51" t="s">
         <v>4</v>
@@ -9310,21 +9907,20 @@
       </c>
       <c r="H52">
         <f>_xlfn.CONFIDENCE.T(0.05,H51,15)</f>
-        <v>0.23022897729502764</v>
+        <v>0.24489141189270275</v>
       </c>
       <c r="Q52" t="s">
         <v>5</v>
       </c>
       <c r="R52">
         <f>_xlfn.CONFIDENCE.T(0.05,R51,15)</f>
-        <v>0.36918769437657861</v>
+        <v>0.39762731579677613</v>
       </c>
       <c r="AA52" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" t="e">
-        <f>_xlfn.CONFIDENCE.T(0.05,AB51,15)</f>
-        <v>#NUM!</v>
+      <c r="AB52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
